--- a/po_analysis_by_asin/B0BZHBRQCQ_po_data.xlsx
+++ b/po_analysis_by_asin/B0BZHBRQCQ_po_data.xlsx
@@ -430,7 +430,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B5"/>
+  <dimension ref="A1:B33"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -452,33 +452,257 @@
     </row>
     <row r="2">
       <c r="A2" s="2" t="n">
-        <v>45292</v>
+        <v>45032.99999999999</v>
       </c>
       <c r="B2" t="n">
-        <v>60</v>
+        <v>10</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="n">
-        <v>45306</v>
+        <v>45039.99999999999</v>
       </c>
       <c r="B3" t="n">
-        <v>30</v>
+        <v>40</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="2" t="n">
-        <v>45355</v>
+        <v>45046.99999999999</v>
       </c>
       <c r="B4" t="n">
-        <v>10</v>
+        <v>60</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="2" t="n">
-        <v>45362</v>
+        <v>45060.99999999999</v>
       </c>
       <c r="B5" t="n">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>45081.99999999999</v>
+      </c>
+      <c r="B6" t="n">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>45088.99999999999</v>
+      </c>
+      <c r="B7" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>45095.99999999999</v>
+      </c>
+      <c r="B8" t="n">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>45102.99999999999</v>
+      </c>
+      <c r="B9" t="n">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>45109.99999999999</v>
+      </c>
+      <c r="B10" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>45123.99999999999</v>
+      </c>
+      <c r="B11" t="n">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>45130.99999999999</v>
+      </c>
+      <c r="B12" t="n">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>45137.99999999999</v>
+      </c>
+      <c r="B13" t="n">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>45144.99999999999</v>
+      </c>
+      <c r="B14" t="n">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>45151.99999999999</v>
+      </c>
+      <c r="B15" t="n">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>45172.99999999999</v>
+      </c>
+      <c r="B16" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>45179.99999999999</v>
+      </c>
+      <c r="B17" t="n">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>45186.99999999999</v>
+      </c>
+      <c r="B18" t="n">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>45193.99999999999</v>
+      </c>
+      <c r="B19" t="n">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>45200.99999999999</v>
+      </c>
+      <c r="B20" t="n">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>45207.99999999999</v>
+      </c>
+      <c r="B21" t="n">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>45214.99999999999</v>
+      </c>
+      <c r="B22" t="n">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>45221.99999999999</v>
+      </c>
+      <c r="B23" t="n">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>45228.99999999999</v>
+      </c>
+      <c r="B24" t="n">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>45235.99999999999</v>
+      </c>
+      <c r="B25" t="n">
+        <v>730</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>45249.99999999999</v>
+      </c>
+      <c r="B26" t="n">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>45256.99999999999</v>
+      </c>
+      <c r="B27" t="n">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>45270.99999999999</v>
+      </c>
+      <c r="B28" t="n">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>45277.99999999999</v>
+      </c>
+      <c r="B29" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>45298.99999999999</v>
+      </c>
+      <c r="B30" t="n">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>45312.99999999999</v>
+      </c>
+      <c r="B31" t="n">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>45361.99999999999</v>
+      </c>
+      <c r="B32" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>45368.99999999999</v>
+      </c>
+      <c r="B33" t="n">
         <v>20</v>
       </c>
     </row>
@@ -493,7 +717,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B3"/>
+  <dimension ref="A1:B12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -515,17 +739,89 @@
     </row>
     <row r="2">
       <c r="A2" s="2" t="n">
-        <v>45292</v>
+        <v>45046.99999999999</v>
       </c>
       <c r="B2" t="n">
-        <v>90</v>
+        <v>110</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="n">
-        <v>45352</v>
+        <v>45077.99999999999</v>
       </c>
       <c r="B3" t="n">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>45107.99999999999</v>
+      </c>
+      <c r="B4" t="n">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>45138.99999999999</v>
+      </c>
+      <c r="B5" t="n">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>45169.99999999999</v>
+      </c>
+      <c r="B6" t="n">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>45199.99999999999</v>
+      </c>
+      <c r="B7" t="n">
+        <v>620</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>45230.99999999999</v>
+      </c>
+      <c r="B8" t="n">
+        <v>800</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>45260.99999999999</v>
+      </c>
+      <c r="B9" t="n">
+        <v>1390</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>45291.99999999999</v>
+      </c>
+      <c r="B10" t="n">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>45322.99999999999</v>
+      </c>
+      <c r="B11" t="n">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>45382.99999999999</v>
+      </c>
+      <c r="B12" t="n">
         <v>30</v>
       </c>
     </row>

--- a/po_analysis_by_asin/B0BZHBRQCQ_po_data.xlsx
+++ b/po_analysis_by_asin/B0BZHBRQCQ_po_data.xlsx
@@ -430,7 +430,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B33"/>
+  <dimension ref="A1:B30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -540,170 +540,146 @@
     </row>
     <row r="13">
       <c r="A13" s="2" t="n">
-        <v>45137.99999999999</v>
+        <v>45144.99999999999</v>
       </c>
       <c r="B13" t="n">
-        <v>290</v>
+        <v>400</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="2" t="n">
-        <v>45144.99999999999</v>
+        <v>45151.99999999999</v>
       </c>
       <c r="B14" t="n">
-        <v>400</v>
+        <v>70</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="2" t="n">
-        <v>45151.99999999999</v>
+        <v>45172.99999999999</v>
       </c>
       <c r="B15" t="n">
-        <v>70</v>
+        <v>20</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="2" t="n">
-        <v>45172.99999999999</v>
+        <v>45179.99999999999</v>
       </c>
       <c r="B16" t="n">
-        <v>20</v>
+        <v>80</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="2" t="n">
-        <v>45179.99999999999</v>
+        <v>45186.99999999999</v>
       </c>
       <c r="B17" t="n">
-        <v>80</v>
+        <v>210</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="2" t="n">
-        <v>45186.99999999999</v>
+        <v>45193.99999999999</v>
       </c>
       <c r="B18" t="n">
-        <v>210</v>
+        <v>80</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="2" t="n">
-        <v>45193.99999999999</v>
+        <v>45200.99999999999</v>
       </c>
       <c r="B19" t="n">
-        <v>80</v>
+        <v>250</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="2" t="n">
-        <v>45200.99999999999</v>
+        <v>45207.99999999999</v>
       </c>
       <c r="B20" t="n">
-        <v>250</v>
+        <v>150</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="2" t="n">
-        <v>45207.99999999999</v>
+        <v>45214.99999999999</v>
       </c>
       <c r="B21" t="n">
-        <v>150</v>
+        <v>160</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="2" t="n">
-        <v>45214.99999999999</v>
+        <v>45221.99999999999</v>
       </c>
       <c r="B22" t="n">
-        <v>160</v>
+        <v>130</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="2" t="n">
-        <v>45221.99999999999</v>
+        <v>45228.99999999999</v>
       </c>
       <c r="B23" t="n">
-        <v>130</v>
+        <v>360</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="2" t="n">
-        <v>45228.99999999999</v>
+        <v>45235.99999999999</v>
       </c>
       <c r="B24" t="n">
-        <v>360</v>
+        <v>730</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="2" t="n">
-        <v>45235.99999999999</v>
+        <v>45249.99999999999</v>
       </c>
       <c r="B25" t="n">
-        <v>730</v>
+        <v>360</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="2" t="n">
-        <v>45249.99999999999</v>
+        <v>45256.99999999999</v>
       </c>
       <c r="B26" t="n">
-        <v>360</v>
+        <v>300</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="2" t="n">
-        <v>45256.99999999999</v>
+        <v>45270.99999999999</v>
       </c>
       <c r="B27" t="n">
-        <v>300</v>
+        <v>320</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="2" t="n">
-        <v>45270.99999999999</v>
+        <v>45277.99999999999</v>
       </c>
       <c r="B28" t="n">
-        <v>320</v>
+        <v>10</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="2" t="n">
-        <v>45277.99999999999</v>
+        <v>45298.99999999999</v>
       </c>
       <c r="B29" t="n">
-        <v>10</v>
+        <v>60</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="2" t="n">
-        <v>45298.99999999999</v>
+        <v>45312.99999999999</v>
       </c>
       <c r="B30" t="n">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="31">
-      <c r="A31" s="2" t="n">
-        <v>45312.99999999999</v>
-      </c>
-      <c r="B31" t="n">
         <v>30</v>
-      </c>
-    </row>
-    <row r="32">
-      <c r="A32" s="2" t="n">
-        <v>45361.99999999999</v>
-      </c>
-      <c r="B32" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="33">
-      <c r="A33" s="2" t="n">
-        <v>45368.99999999999</v>
-      </c>
-      <c r="B33" t="n">
-        <v>20</v>
       </c>
     </row>
   </sheetData>
@@ -717,7 +693,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B12"/>
+  <dimension ref="A1:B11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -766,7 +742,7 @@
         <v>45138.99999999999</v>
       </c>
       <c r="B5" t="n">
-        <v>400</v>
+        <v>110</v>
       </c>
     </row>
     <row r="6">
@@ -815,14 +791,6 @@
       </c>
       <c r="B11" t="n">
         <v>90</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="2" t="n">
-        <v>45382.99999999999</v>
-      </c>
-      <c r="B12" t="n">
-        <v>30</v>
       </c>
     </row>
   </sheetData>

--- a/po_analysis_by_asin/B0BZHBRQCQ_po_data.xlsx
+++ b/po_analysis_by_asin/B0BZHBRQCQ_po_data.xlsx
@@ -9,6 +9,7 @@
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Weekly Quantity" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Monthly Trend" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="PO Forecast" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -446,7 +447,7 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>Requested quantity</t>
+          <t>Weekly_PO_Qty</t>
         </is>
       </c>
     </row>
@@ -709,7 +710,7 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>Requested quantity</t>
+          <t>Monthly_PO_Qty</t>
         </is>
       </c>
     </row>
@@ -791,6 +792,565 @@
       </c>
       <c r="B11" t="n">
         <v>90</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D38"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>ds</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>PO_Forecast</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>yhat_lower</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>yhat_upper</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>45032.99999999999</v>
+      </c>
+      <c r="B2" t="n">
+        <v>33</v>
+      </c>
+      <c r="C2" t="n">
+        <v>-149.4623435216175</v>
+      </c>
+      <c r="D2" t="n">
+        <v>220.4587268990612</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>45039.99999999999</v>
+      </c>
+      <c r="B3" t="n">
+        <v>39</v>
+      </c>
+      <c r="C3" t="n">
+        <v>-158.6019897442179</v>
+      </c>
+      <c r="D3" t="n">
+        <v>214.6034755328131</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>45046.99999999999</v>
+      </c>
+      <c r="B4" t="n">
+        <v>45</v>
+      </c>
+      <c r="C4" t="n">
+        <v>-148.0569877925644</v>
+      </c>
+      <c r="D4" t="n">
+        <v>234.1487066376461</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>45060.99999999999</v>
+      </c>
+      <c r="B5" t="n">
+        <v>56</v>
+      </c>
+      <c r="C5" t="n">
+        <v>-138.8115313470916</v>
+      </c>
+      <c r="D5" t="n">
+        <v>230.4975436591615</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>45081.99999999999</v>
+      </c>
+      <c r="B6" t="n">
+        <v>74</v>
+      </c>
+      <c r="C6" t="n">
+        <v>-112.0194308763698</v>
+      </c>
+      <c r="D6" t="n">
+        <v>259.6443069342743</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>45088.99999999999</v>
+      </c>
+      <c r="B7" t="n">
+        <v>79</v>
+      </c>
+      <c r="C7" t="n">
+        <v>-106.6238841509041</v>
+      </c>
+      <c r="D7" t="n">
+        <v>265.356714584919</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>45095.99999999999</v>
+      </c>
+      <c r="B8" t="n">
+        <v>85</v>
+      </c>
+      <c r="C8" t="n">
+        <v>-118.1467638216152</v>
+      </c>
+      <c r="D8" t="n">
+        <v>277.9227004925371</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>45102.99999999999</v>
+      </c>
+      <c r="B9" t="n">
+        <v>91</v>
+      </c>
+      <c r="C9" t="n">
+        <v>-106.4994379431113</v>
+      </c>
+      <c r="D9" t="n">
+        <v>279.3870107131009</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>45109.99999999999</v>
+      </c>
+      <c r="B10" t="n">
+        <v>97</v>
+      </c>
+      <c r="C10" t="n">
+        <v>-93.79326059505452</v>
+      </c>
+      <c r="D10" t="n">
+        <v>285.4986744689729</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>45123.99999999999</v>
+      </c>
+      <c r="B11" t="n">
+        <v>108</v>
+      </c>
+      <c r="C11" t="n">
+        <v>-75.75229373030483</v>
+      </c>
+      <c r="D11" t="n">
+        <v>303.2077157124473</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>45130.99999999999</v>
+      </c>
+      <c r="B12" t="n">
+        <v>114</v>
+      </c>
+      <c r="C12" t="n">
+        <v>-77.79880156914601</v>
+      </c>
+      <c r="D12" t="n">
+        <v>296.3390171572648</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>45144.99999999999</v>
+      </c>
+      <c r="B13" t="n">
+        <v>125</v>
+      </c>
+      <c r="C13" t="n">
+        <v>-68.41985334433502</v>
+      </c>
+      <c r="D13" t="n">
+        <v>318.8413199249561</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>45151.99999999999</v>
+      </c>
+      <c r="B14" t="n">
+        <v>131</v>
+      </c>
+      <c r="C14" t="n">
+        <v>-71.39804344541351</v>
+      </c>
+      <c r="D14" t="n">
+        <v>313.115268442962</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>45172.99999999999</v>
+      </c>
+      <c r="B15" t="n">
+        <v>148</v>
+      </c>
+      <c r="C15" t="n">
+        <v>-56.36797429134486</v>
+      </c>
+      <c r="D15" t="n">
+        <v>333.8993774498993</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>45179.99999999999</v>
+      </c>
+      <c r="B16" t="n">
+        <v>154</v>
+      </c>
+      <c r="C16" t="n">
+        <v>-23.26703110427812</v>
+      </c>
+      <c r="D16" t="n">
+        <v>338.6862903913225</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>45186.99999999999</v>
+      </c>
+      <c r="B17" t="n">
+        <v>160</v>
+      </c>
+      <c r="C17" t="n">
+        <v>-25.23985515466447</v>
+      </c>
+      <c r="D17" t="n">
+        <v>337.5803137425985</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>45193.99999999999</v>
+      </c>
+      <c r="B18" t="n">
+        <v>165</v>
+      </c>
+      <c r="C18" t="n">
+        <v>-24.92898777471201</v>
+      </c>
+      <c r="D18" t="n">
+        <v>354.3614239416337</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>45200.99999999999</v>
+      </c>
+      <c r="B19" t="n">
+        <v>171</v>
+      </c>
+      <c r="C19" t="n">
+        <v>-18.8172178471034</v>
+      </c>
+      <c r="D19" t="n">
+        <v>354.3919218302834</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>45207.99999999999</v>
+      </c>
+      <c r="B20" t="n">
+        <v>177</v>
+      </c>
+      <c r="C20" t="n">
+        <v>-5.564315856688926</v>
+      </c>
+      <c r="D20" t="n">
+        <v>360.3327699807875</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>45214.99999999999</v>
+      </c>
+      <c r="B21" t="n">
+        <v>183</v>
+      </c>
+      <c r="C21" t="n">
+        <v>-3.690611064769317</v>
+      </c>
+      <c r="D21" t="n">
+        <v>373.1369261810859</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>45221.99999999999</v>
+      </c>
+      <c r="B22" t="n">
+        <v>188</v>
+      </c>
+      <c r="C22" t="n">
+        <v>-6.696714850926763</v>
+      </c>
+      <c r="D22" t="n">
+        <v>367.6618083860693</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>45228.99999999999</v>
+      </c>
+      <c r="B23" t="n">
+        <v>194</v>
+      </c>
+      <c r="C23" t="n">
+        <v>1.131033061522316</v>
+      </c>
+      <c r="D23" t="n">
+        <v>381.1961279625451</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>45235.99999999999</v>
+      </c>
+      <c r="B24" t="n">
+        <v>200</v>
+      </c>
+      <c r="C24" t="n">
+        <v>20.27579993027134</v>
+      </c>
+      <c r="D24" t="n">
+        <v>381.4796064245278</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>45249.99999999999</v>
+      </c>
+      <c r="B25" t="n">
+        <v>211</v>
+      </c>
+      <c r="C25" t="n">
+        <v>20.88885933142781</v>
+      </c>
+      <c r="D25" t="n">
+        <v>391.2616662914564</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>45256.99999999999</v>
+      </c>
+      <c r="B26" t="n">
+        <v>217</v>
+      </c>
+      <c r="C26" t="n">
+        <v>28.74245115048847</v>
+      </c>
+      <c r="D26" t="n">
+        <v>414.912676097954</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>45270.99999999999</v>
+      </c>
+      <c r="B27" t="n">
+        <v>228</v>
+      </c>
+      <c r="C27" t="n">
+        <v>21.51087407188218</v>
+      </c>
+      <c r="D27" t="n">
+        <v>410.7345002295195</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>45277.99999999999</v>
+      </c>
+      <c r="B28" t="n">
+        <v>234</v>
+      </c>
+      <c r="C28" t="n">
+        <v>41.63918609011267</v>
+      </c>
+      <c r="D28" t="n">
+        <v>424.1737927287734</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>45298.99999999999</v>
+      </c>
+      <c r="B29" t="n">
+        <v>251</v>
+      </c>
+      <c r="C29" t="n">
+        <v>68.25752869139443</v>
+      </c>
+      <c r="D29" t="n">
+        <v>466.3342125287227</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>45312.99999999999</v>
+      </c>
+      <c r="B30" t="n">
+        <v>263</v>
+      </c>
+      <c r="C30" t="n">
+        <v>73.08378488587995</v>
+      </c>
+      <c r="D30" t="n">
+        <v>454.8103464090547</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>45319.99999999999</v>
+      </c>
+      <c r="B31" t="n">
+        <v>269</v>
+      </c>
+      <c r="C31" t="n">
+        <v>83.35628242987119</v>
+      </c>
+      <c r="D31" t="n">
+        <v>455.3601507993885</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>45326.99999999999</v>
+      </c>
+      <c r="B32" t="n">
+        <v>274</v>
+      </c>
+      <c r="C32" t="n">
+        <v>91.81474286279384</v>
+      </c>
+      <c r="D32" t="n">
+        <v>461.8261256355665</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>45333.99999999999</v>
+      </c>
+      <c r="B33" t="n">
+        <v>280</v>
+      </c>
+      <c r="C33" t="n">
+        <v>106.2094547635467</v>
+      </c>
+      <c r="D33" t="n">
+        <v>463.5309336553689</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>45340.99999999999</v>
+      </c>
+      <c r="B34" t="n">
+        <v>286</v>
+      </c>
+      <c r="C34" t="n">
+        <v>89.47483637219852</v>
+      </c>
+      <c r="D34" t="n">
+        <v>465.5220779652544</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>45347.99999999999</v>
+      </c>
+      <c r="B35" t="n">
+        <v>292</v>
+      </c>
+      <c r="C35" t="n">
+        <v>93.56535860533052</v>
+      </c>
+      <c r="D35" t="n">
+        <v>482.9278561931833</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>45354.99999999999</v>
+      </c>
+      <c r="B36" t="n">
+        <v>297</v>
+      </c>
+      <c r="C36" t="n">
+        <v>110.0504894882028</v>
+      </c>
+      <c r="D36" t="n">
+        <v>485.331372175574</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>45361.99999999999</v>
+      </c>
+      <c r="B37" t="n">
+        <v>303</v>
+      </c>
+      <c r="C37" t="n">
+        <v>122.6032585174171</v>
+      </c>
+      <c r="D37" t="n">
+        <v>490.6465701566764</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>45368.99999999999</v>
+      </c>
+      <c r="B38" t="n">
+        <v>309</v>
+      </c>
+      <c r="C38" t="n">
+        <v>114.8162591996015</v>
+      </c>
+      <c r="D38" t="n">
+        <v>502.5113371826332</v>
       </c>
     </row>
   </sheetData>

--- a/po_analysis_by_asin/B0BZHBRQCQ_po_data.xlsx
+++ b/po_analysis_by_asin/B0BZHBRQCQ_po_data.xlsx
@@ -805,7 +805,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D38"/>
+  <dimension ref="A1:B38"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -824,16 +824,6 @@
           <t>PO_Forecast</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>yhat_lower</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>yhat_upper</t>
-        </is>
-      </c>
     </row>
     <row r="2">
       <c r="A2" s="2" t="n">
@@ -842,12 +832,6 @@
       <c r="B2" t="n">
         <v>33</v>
       </c>
-      <c r="C2" t="n">
-        <v>-149.4623435216175</v>
-      </c>
-      <c r="D2" t="n">
-        <v>220.4587268990612</v>
-      </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="n">
@@ -856,12 +840,6 @@
       <c r="B3" t="n">
         <v>39</v>
       </c>
-      <c r="C3" t="n">
-        <v>-158.6019897442179</v>
-      </c>
-      <c r="D3" t="n">
-        <v>214.6034755328131</v>
-      </c>
     </row>
     <row r="4">
       <c r="A4" s="2" t="n">
@@ -870,12 +848,6 @@
       <c r="B4" t="n">
         <v>45</v>
       </c>
-      <c r="C4" t="n">
-        <v>-148.0569877925644</v>
-      </c>
-      <c r="D4" t="n">
-        <v>234.1487066376461</v>
-      </c>
     </row>
     <row r="5">
       <c r="A5" s="2" t="n">
@@ -884,12 +856,6 @@
       <c r="B5" t="n">
         <v>56</v>
       </c>
-      <c r="C5" t="n">
-        <v>-138.8115313470916</v>
-      </c>
-      <c r="D5" t="n">
-        <v>230.4975436591615</v>
-      </c>
     </row>
     <row r="6">
       <c r="A6" s="2" t="n">
@@ -898,12 +864,6 @@
       <c r="B6" t="n">
         <v>74</v>
       </c>
-      <c r="C6" t="n">
-        <v>-112.0194308763698</v>
-      </c>
-      <c r="D6" t="n">
-        <v>259.6443069342743</v>
-      </c>
     </row>
     <row r="7">
       <c r="A7" s="2" t="n">
@@ -912,12 +872,6 @@
       <c r="B7" t="n">
         <v>79</v>
       </c>
-      <c r="C7" t="n">
-        <v>-106.6238841509041</v>
-      </c>
-      <c r="D7" t="n">
-        <v>265.356714584919</v>
-      </c>
     </row>
     <row r="8">
       <c r="A8" s="2" t="n">
@@ -926,12 +880,6 @@
       <c r="B8" t="n">
         <v>85</v>
       </c>
-      <c r="C8" t="n">
-        <v>-118.1467638216152</v>
-      </c>
-      <c r="D8" t="n">
-        <v>277.9227004925371</v>
-      </c>
     </row>
     <row r="9">
       <c r="A9" s="2" t="n">
@@ -940,12 +888,6 @@
       <c r="B9" t="n">
         <v>91</v>
       </c>
-      <c r="C9" t="n">
-        <v>-106.4994379431113</v>
-      </c>
-      <c r="D9" t="n">
-        <v>279.3870107131009</v>
-      </c>
     </row>
     <row r="10">
       <c r="A10" s="2" t="n">
@@ -954,12 +896,6 @@
       <c r="B10" t="n">
         <v>97</v>
       </c>
-      <c r="C10" t="n">
-        <v>-93.79326059505452</v>
-      </c>
-      <c r="D10" t="n">
-        <v>285.4986744689729</v>
-      </c>
     </row>
     <row r="11">
       <c r="A11" s="2" t="n">
@@ -968,12 +904,6 @@
       <c r="B11" t="n">
         <v>108</v>
       </c>
-      <c r="C11" t="n">
-        <v>-75.75229373030483</v>
-      </c>
-      <c r="D11" t="n">
-        <v>303.2077157124473</v>
-      </c>
     </row>
     <row r="12">
       <c r="A12" s="2" t="n">
@@ -982,12 +912,6 @@
       <c r="B12" t="n">
         <v>114</v>
       </c>
-      <c r="C12" t="n">
-        <v>-77.79880156914601</v>
-      </c>
-      <c r="D12" t="n">
-        <v>296.3390171572648</v>
-      </c>
     </row>
     <row r="13">
       <c r="A13" s="2" t="n">
@@ -996,12 +920,6 @@
       <c r="B13" t="n">
         <v>125</v>
       </c>
-      <c r="C13" t="n">
-        <v>-68.41985334433502</v>
-      </c>
-      <c r="D13" t="n">
-        <v>318.8413199249561</v>
-      </c>
     </row>
     <row r="14">
       <c r="A14" s="2" t="n">
@@ -1010,12 +928,6 @@
       <c r="B14" t="n">
         <v>131</v>
       </c>
-      <c r="C14" t="n">
-        <v>-71.39804344541351</v>
-      </c>
-      <c r="D14" t="n">
-        <v>313.115268442962</v>
-      </c>
     </row>
     <row r="15">
       <c r="A15" s="2" t="n">
@@ -1024,12 +936,6 @@
       <c r="B15" t="n">
         <v>148</v>
       </c>
-      <c r="C15" t="n">
-        <v>-56.36797429134486</v>
-      </c>
-      <c r="D15" t="n">
-        <v>333.8993774498993</v>
-      </c>
     </row>
     <row r="16">
       <c r="A16" s="2" t="n">
@@ -1038,12 +944,6 @@
       <c r="B16" t="n">
         <v>154</v>
       </c>
-      <c r="C16" t="n">
-        <v>-23.26703110427812</v>
-      </c>
-      <c r="D16" t="n">
-        <v>338.6862903913225</v>
-      </c>
     </row>
     <row r="17">
       <c r="A17" s="2" t="n">
@@ -1052,12 +952,6 @@
       <c r="B17" t="n">
         <v>160</v>
       </c>
-      <c r="C17" t="n">
-        <v>-25.23985515466447</v>
-      </c>
-      <c r="D17" t="n">
-        <v>337.5803137425985</v>
-      </c>
     </row>
     <row r="18">
       <c r="A18" s="2" t="n">
@@ -1066,12 +960,6 @@
       <c r="B18" t="n">
         <v>165</v>
       </c>
-      <c r="C18" t="n">
-        <v>-24.92898777471201</v>
-      </c>
-      <c r="D18" t="n">
-        <v>354.3614239416337</v>
-      </c>
     </row>
     <row r="19">
       <c r="A19" s="2" t="n">
@@ -1080,12 +968,6 @@
       <c r="B19" t="n">
         <v>171</v>
       </c>
-      <c r="C19" t="n">
-        <v>-18.8172178471034</v>
-      </c>
-      <c r="D19" t="n">
-        <v>354.3919218302834</v>
-      </c>
     </row>
     <row r="20">
       <c r="A20" s="2" t="n">
@@ -1094,12 +976,6 @@
       <c r="B20" t="n">
         <v>177</v>
       </c>
-      <c r="C20" t="n">
-        <v>-5.564315856688926</v>
-      </c>
-      <c r="D20" t="n">
-        <v>360.3327699807875</v>
-      </c>
     </row>
     <row r="21">
       <c r="A21" s="2" t="n">
@@ -1108,12 +984,6 @@
       <c r="B21" t="n">
         <v>183</v>
       </c>
-      <c r="C21" t="n">
-        <v>-3.690611064769317</v>
-      </c>
-      <c r="D21" t="n">
-        <v>373.1369261810859</v>
-      </c>
     </row>
     <row r="22">
       <c r="A22" s="2" t="n">
@@ -1122,12 +992,6 @@
       <c r="B22" t="n">
         <v>188</v>
       </c>
-      <c r="C22" t="n">
-        <v>-6.696714850926763</v>
-      </c>
-      <c r="D22" t="n">
-        <v>367.6618083860693</v>
-      </c>
     </row>
     <row r="23">
       <c r="A23" s="2" t="n">
@@ -1136,12 +1000,6 @@
       <c r="B23" t="n">
         <v>194</v>
       </c>
-      <c r="C23" t="n">
-        <v>1.131033061522316</v>
-      </c>
-      <c r="D23" t="n">
-        <v>381.1961279625451</v>
-      </c>
     </row>
     <row r="24">
       <c r="A24" s="2" t="n">
@@ -1150,12 +1008,6 @@
       <c r="B24" t="n">
         <v>200</v>
       </c>
-      <c r="C24" t="n">
-        <v>20.27579993027134</v>
-      </c>
-      <c r="D24" t="n">
-        <v>381.4796064245278</v>
-      </c>
     </row>
     <row r="25">
       <c r="A25" s="2" t="n">
@@ -1164,12 +1016,6 @@
       <c r="B25" t="n">
         <v>211</v>
       </c>
-      <c r="C25" t="n">
-        <v>20.88885933142781</v>
-      </c>
-      <c r="D25" t="n">
-        <v>391.2616662914564</v>
-      </c>
     </row>
     <row r="26">
       <c r="A26" s="2" t="n">
@@ -1178,12 +1024,6 @@
       <c r="B26" t="n">
         <v>217</v>
       </c>
-      <c r="C26" t="n">
-        <v>28.74245115048847</v>
-      </c>
-      <c r="D26" t="n">
-        <v>414.912676097954</v>
-      </c>
     </row>
     <row r="27">
       <c r="A27" s="2" t="n">
@@ -1192,12 +1032,6 @@
       <c r="B27" t="n">
         <v>228</v>
       </c>
-      <c r="C27" t="n">
-        <v>21.51087407188218</v>
-      </c>
-      <c r="D27" t="n">
-        <v>410.7345002295195</v>
-      </c>
     </row>
     <row r="28">
       <c r="A28" s="2" t="n">
@@ -1206,12 +1040,6 @@
       <c r="B28" t="n">
         <v>234</v>
       </c>
-      <c r="C28" t="n">
-        <v>41.63918609011267</v>
-      </c>
-      <c r="D28" t="n">
-        <v>424.1737927287734</v>
-      </c>
     </row>
     <row r="29">
       <c r="A29" s="2" t="n">
@@ -1220,12 +1048,6 @@
       <c r="B29" t="n">
         <v>251</v>
       </c>
-      <c r="C29" t="n">
-        <v>68.25752869139443</v>
-      </c>
-      <c r="D29" t="n">
-        <v>466.3342125287227</v>
-      </c>
     </row>
     <row r="30">
       <c r="A30" s="2" t="n">
@@ -1234,12 +1056,6 @@
       <c r="B30" t="n">
         <v>263</v>
       </c>
-      <c r="C30" t="n">
-        <v>73.08378488587995</v>
-      </c>
-      <c r="D30" t="n">
-        <v>454.8103464090547</v>
-      </c>
     </row>
     <row r="31">
       <c r="A31" s="2" t="n">
@@ -1248,12 +1064,6 @@
       <c r="B31" t="n">
         <v>269</v>
       </c>
-      <c r="C31" t="n">
-        <v>83.35628242987119</v>
-      </c>
-      <c r="D31" t="n">
-        <v>455.3601507993885</v>
-      </c>
     </row>
     <row r="32">
       <c r="A32" s="2" t="n">
@@ -1262,12 +1072,6 @@
       <c r="B32" t="n">
         <v>274</v>
       </c>
-      <c r="C32" t="n">
-        <v>91.81474286279384</v>
-      </c>
-      <c r="D32" t="n">
-        <v>461.8261256355665</v>
-      </c>
     </row>
     <row r="33">
       <c r="A33" s="2" t="n">
@@ -1276,12 +1080,6 @@
       <c r="B33" t="n">
         <v>280</v>
       </c>
-      <c r="C33" t="n">
-        <v>106.2094547635467</v>
-      </c>
-      <c r="D33" t="n">
-        <v>463.5309336553689</v>
-      </c>
     </row>
     <row r="34">
       <c r="A34" s="2" t="n">
@@ -1290,12 +1088,6 @@
       <c r="B34" t="n">
         <v>286</v>
       </c>
-      <c r="C34" t="n">
-        <v>89.47483637219852</v>
-      </c>
-      <c r="D34" t="n">
-        <v>465.5220779652544</v>
-      </c>
     </row>
     <row r="35">
       <c r="A35" s="2" t="n">
@@ -1304,12 +1096,6 @@
       <c r="B35" t="n">
         <v>292</v>
       </c>
-      <c r="C35" t="n">
-        <v>93.56535860533052</v>
-      </c>
-      <c r="D35" t="n">
-        <v>482.9278561931833</v>
-      </c>
     </row>
     <row r="36">
       <c r="A36" s="2" t="n">
@@ -1318,12 +1104,6 @@
       <c r="B36" t="n">
         <v>297</v>
       </c>
-      <c r="C36" t="n">
-        <v>110.0504894882028</v>
-      </c>
-      <c r="D36" t="n">
-        <v>485.331372175574</v>
-      </c>
     </row>
     <row r="37">
       <c r="A37" s="2" t="n">
@@ -1332,12 +1112,6 @@
       <c r="B37" t="n">
         <v>303</v>
       </c>
-      <c r="C37" t="n">
-        <v>122.6032585174171</v>
-      </c>
-      <c r="D37" t="n">
-        <v>490.6465701566764</v>
-      </c>
     </row>
     <row r="38">
       <c r="A38" s="2" t="n">
@@ -1345,12 +1119,6 @@
       </c>
       <c r="B38" t="n">
         <v>309</v>
-      </c>
-      <c r="C38" t="n">
-        <v>114.8162591996015</v>
-      </c>
-      <c r="D38" t="n">
-        <v>502.5113371826332</v>
       </c>
     </row>
   </sheetData>
